--- a/templates/Excel/ST1_Tool_Monitoring.xlsx
+++ b/templates/Excel/ST1_Tool_Monitoring.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,12 +613,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-07T11:56</t>
+          <t>2025-02-22T18:36</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SHIFT1</t>
+          <t>SHIFT_2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -626,305 +626,164 @@
           <t>OK</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>341</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>31</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>321</v>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v>321</v>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="N2" t="n">
-        <v>321</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="P2" t="n">
-        <v>321</v>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v>32</v>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v>3</v>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="V2" t="n">
-        <v>315</v>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="X2" t="n">
-        <v>31</v>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="Z2" t="n">
-        <v>312</v>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="AB2" t="n">
-        <v>321</v>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="AD2" t="n">
-        <v>123</v>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
           <t>OK</t>
         </is>
       </c>
-      <c r="AF2" t="n">
-        <v>123</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>231</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>123</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-02-04T17:28</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>SHIFT1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>suriya</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>suriya</t>
         </is>
       </c>
     </row>
